--- a/compare.xlsx
+++ b/compare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
@@ -837,279 +837,296 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>005-000003327</t>
+          <t>005-000000063</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SO-OCIO-DISC-Robotics Process Automation (RPA)</t>
+          <t>FPAC-RMA-13 Emerging Information Technology Architecture (EITA)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>005-000003220</t>
+          <t>005-000003327</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TFAA-FAS-IMART</t>
+          <t>SO-OCIO-DISC-Robotics Process Automation (RPA)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>005-000003400</t>
+          <t>005-000003220</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TFAA-FAS-Overseas Operations</t>
+          <t>TFAA-FAS-IMART</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>005-000003195</t>
+          <t>005-000003400</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SO-OCFO-NFC-Employee Services</t>
+          <t>TFAA-FAS-Overseas Operations</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>005-000000042</t>
+          <t>005-000003195</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FNCS-FNS-Anti-Fraud Locator Using EBT Retailer Transactions (ALERT)</t>
+          <t>SO-OCFO-NFC-Employee Services</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>005-000003326</t>
+          <t>005-000000042</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DA-OCX-Contact Center</t>
+          <t>FNCS-FNS-Anti-Fraud Locator Using EBT Retailer Transactions (ALERT)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>005-000003276</t>
+          <t>005-000003326</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FPAC-FSA-129 Program Financial Services</t>
+          <t>DA-OCX-Contact Center</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>005-000003311</t>
+          <t>005-000003276</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FPAC-FBC-1001 Customer Engagement and Management Services</t>
+          <t>FPAC-FSA-129 Program Financial Services</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>005-000003245</t>
+          <t>005-000003311</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NRE-FS-Interagency Resource Ordering Capability (IROC)</t>
+          <t>FPAC-FBC-1001 Customer Engagement and Management Services</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>005-000001605</t>
+          <t>005-000003245</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MRP-AMS-Conformance Management</t>
+          <t>NRE-FS-Interagency Resource Ordering Capability (IROC)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>005-000002394</t>
+          <t>005-000001605</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FNCS-FNS-Supplemental Nutrition Assistance Program (SNAP) Support</t>
+          <t>MRP-AMS-Conformance Management</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>005-000003355</t>
+          <t>005-000002394</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SO-OGC-FOIAXpress</t>
+          <t>FNCS-FNS-Supplemental Nutrition Assistance Program (SNAP) Support</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>005-000001425</t>
+          <t>005-000003355</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SO-OCFO-Financial Management Modernization Initiative (FMMI)</t>
+          <t>SO-OGC-FOIAXpress</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>match</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>005-000000185</t>
+          <t>005-000001425</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MRP-APHIS-Certification, Accreditation, Registration, Permitting, and Other</t>
+          <t>SO-OCFO-Financial Management Modernization Initiative (FMMI)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Failure</t>
+          <t>match</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>005-000002148</t>
+          <t>005-000000185</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FS-FSIS-Public Health Information System (PHIS)</t>
+          <t>MRP-APHIS-Certification, Accreditation, Registration, Permitting, and Other</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>successful test</t>
+          <t>mismatch</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>005-000002148</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FS-FSIS-Public Health Information System (PHIS)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>005-000003297</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>NRE-FS-Open Forest (FS Enterprise ePermit)</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>successful test</t>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>match</t>
         </is>
       </c>
     </row>
